--- a/DOC/洗美/开发计划.xlsx
+++ b/DOC/洗美/开发计划.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="135" windowWidth="14805" windowHeight="7980"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,16 +16,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="18">
   <si>
     <t>功能名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>类型（原型、界面、接口）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>负责人</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -35,6 +31,62 @@
   </si>
   <si>
     <t>实际完成日期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>APP开发完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>接口开发完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PC端面界面开发完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>联调开始日期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>联调结束日期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户测试日期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>丁龄勃</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>接口</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>界面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PC端面界面功能开发完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>李波</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>类型（原型、界面、接口、测试）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>内部测试日期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -382,17 +434,19 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:E1"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="10.875" customWidth="1"/>
-    <col min="2" max="2" width="13.75" customWidth="1"/>
+    <col min="1" max="1" width="22" customWidth="1"/>
+    <col min="2" max="2" width="20.5" customWidth="1"/>
     <col min="3" max="3" width="12.875" customWidth="1"/>
+    <col min="4" max="4" width="14.25" customWidth="1"/>
+    <col min="5" max="5" width="14.375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.15">
@@ -400,16 +454,116 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
         <v>4</v>
+      </c>
+      <c r="B2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2">
+        <v>8.6999999999999993</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3">
+        <v>8.6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4">
+        <v>8.6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5">
+        <v>8.6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6">
+        <v>8.6999999999999993</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7">
+        <v>8.11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8">
+        <v>8.15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" t="s">
+        <v>17</v>
+      </c>
+      <c r="D9">
+        <v>8.1999999999999993</v>
       </c>
     </row>
   </sheetData>
